--- a/Figures/tab1.xlsx
+++ b/Figures/tab1.xlsx
@@ -533,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E4" t="n">
         <v>0.02</v>
@@ -561,13 +561,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.15</v>
+        <v>-0.14</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
@@ -592,10 +592,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D6" t="n">
         <v>0.19</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="D7" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.19</v>
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="C8" t="n">
         <v>0.18</v>
       </c>
       <c r="D8" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E8" t="n">
         <v>0.01</v>
@@ -688,10 +688,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="E9" t="n">
         <v>0.02</v>
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="C10" t="n">
         <v>0.02</v>
       </c>
       <c r="D10" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="E10" t="n">
         <v>0.04</v>
@@ -737,7 +737,7 @@
         <v>0.34</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C11" t="n">
         <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="E11" t="n">
         <v>-0</v>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E12" t="n">
         <v>0.01</v>
@@ -809,13 +809,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
         <v>0.26</v>
       </c>
       <c r="D13" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="E13" t="n">
         <v>0.02</v>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C14" t="n">
         <v>0.02</v>
       </c>
       <c r="D14" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="E14" t="n">
         <v>0.01</v>
@@ -871,16 +871,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C15" t="n">
         <v>0.04</v>
       </c>
       <c r="D15" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F15" t="n">
         <v>0.25</v>
